--- a/MagicBricks/target/test-classes/Exceldata/magicbrickscity.xlsx
+++ b/MagicBricks/target/test-classes/Exceldata/magicbrickscity.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\training\SprintMagicbricks\MagicBricks\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E0B1799-C8DD-48B5-9BA0-BE300230B7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBB8BCB-A0B3-4F1B-B8C3-5A214DB7421A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CEB8AD4D-A52A-4567-9FD2-47FE6C3B4E74}"/>
+    <workbookView xWindow="2080" yWindow="2080" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{CEB8AD4D-A52A-4567-9FD2-47FE6C3B4E74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +37,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>mumbai</t>
   </si>
   <si>
     <t>pune</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
   </si>
 </sst>
 </file>
@@ -415,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575622F3-3DCE-47CA-A88E-E744ED0FF2FC}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -434,4 +441,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5347DB94-648D-42F3-9C75-B6135302929A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>